--- a/aliasDic.xlsx
+++ b/aliasDic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au3406/Desktop/github/scimap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDDF7FD-3519-314D-8900-30CE09787856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB35EF3-9AED-2E4C-8CF4-D262CE26CBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18777,7 +18777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A499" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
       <selection activeCell="F511" sqref="F511"/>
     </sheetView>
   </sheetViews>

--- a/aliasDic.xlsx
+++ b/aliasDic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au3406/Desktop/github/scimap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB35EF3-9AED-2E4C-8CF4-D262CE26CBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A9B578-019A-0144-AFF6-630B9E8E27E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keys" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6430" uniqueCount="5974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6432" uniqueCount="5976">
   <si>
     <t>acids</t>
   </si>
@@ -17947,6 +17947,12 @@
   </si>
   <si>
     <t>snail-lymnaea-stagnalis</t>
+  </si>
+  <si>
+    <t>ejrnaes.r</t>
+  </si>
+  <si>
+    <t>ejrnæs.r</t>
   </si>
 </sst>
 </file>
@@ -18775,10 +18781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B512"/>
+  <dimension ref="A1:B513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="F511" sqref="F511"/>
+    <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
+      <selection activeCell="B506" sqref="B506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -21892,7 +21898,7 @@
         <v>79</v>
       </c>
       <c r="B390" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -22869,6 +22875,14 @@
       </c>
       <c r="B512" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="1" t="s">
+        <v>5974</v>
+      </c>
+      <c r="B513" t="s">
+        <v>5975</v>
       </c>
     </row>
   </sheetData>
